--- a/biology/Zoologie/Hirsutisoma_grimaldii/Hirsutisoma_grimaldii.xlsx
+++ b/biology/Zoologie/Hirsutisoma_grimaldii/Hirsutisoma_grimaldii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirsutisoma grimaldii est une espèce fossile de ricinules de la famille des Hirsutisomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce, datant du Crétacé, a été découverte dans de l'ambre de Birmanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, datant du Crétacé, a été découverte dans de l'ambre de Birmanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,91 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,91 mm
 </t>
         </is>
       </c>
@@ -573,11 +589,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Botero-Trujillo, Davis, Michalik et Prendini en 2022.
-Étymologie
-Cette espèce est nommée en l'honneur de David Alan Grimaldi, conservateur au Musée américain d'histoire naturelle[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hirsutisoma_grimaldii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hirsutisoma_grimaldii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Alan Grimaldi, conservateur au Musée américain d'histoire naturelle.
 </t>
         </is>
       </c>
